--- a/indicadores/tablas/530208.xlsx
+++ b/indicadores/tablas/530208.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -450,12 +450,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="3">
@@ -600,12 +600,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/530208.xlsx
+++ b/indicadores/tablas/530208.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,6 +21,15 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
@@ -67,9 +76,6 @@
   </si>
   <si>
     <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -119,10 +125,17 @@
 Los indicadores de trabajo y seguridad social del año 2020 se construyen con la encuesta presencial realizada hasta marzo de 2020 y posteriormente con la encuesta telefónica panel (siempre que la información haya sido incluida en el formulario). Para el 2021, se calculan a partir de la encuesta telefónica del primer semestre de 2021 y el formulario telefónico de modalidad panel del segundo semestre de 2021. En el segundo semestre de 2021 el quintil de ingresos del hogar corresponde a los ingresos declarados durante la implantación del panel en la encuesta presencial.</t>
   </si>
   <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">cita</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE</t>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE
+</t>
   </si>
   <si>
     <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
@@ -470,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>13.8</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>15.9</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>16.6</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="7">
@@ -510,7 +523,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>19.5</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="9">
@@ -526,7 +539,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>20.1</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>20.6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +555,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="12">
@@ -550,7 +563,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>23.6</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="13">
@@ -558,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>24.5</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +579,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>25.9</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="15">
@@ -574,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>26.6</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="16">
@@ -582,7 +595,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>26.9</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="17">
@@ -590,6 +603,30 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
         <v>27.3</v>
       </c>
     </row>
@@ -609,82 +646,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
